--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail13 Features.xlsx
@@ -4752,7 +4752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4763,29 +4763,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4806,115 +4804,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4931,72 +4919,66 @@
         <v>2.013291116949119e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.364681657309823</v>
+        <v>1.276297113586432e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>11.9432945317652</v>
+        <v>4.616853338732261e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.276297113586432e-07</v>
+        <v>-0.1057602118088082</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.616853338732261e-07</v>
+        <v>0.2805953274429169</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1057602118088082</v>
+        <v>0.08970819208230232</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2805953274429169</v>
+        <v>1.916314908675608</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08970819208230232</v>
+        <v>3.690769960256481</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.948977338882621</v>
+        <v>7.541277209758272</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.690769960256481</v>
+        <v>2.521983301967722e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.541277209758272</v>
+        <v>147912788474.2704</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.521983301967722e-19</v>
+        <v>8.084840237264383e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>147912788474.2704</v>
+        <v>5517.643740868602</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.084840237264383e-10</v>
+        <v>1.526714956055423e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5517.643740868602</v>
+        <v>9.124641289039145</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1.526714956055423e-05</v>
+        <v>1.720790790439839</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.124641289039145</v>
+        <v>0.001271128806079039</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.720790790439839</v>
+        <v>7.882890240920737</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.001271128806079039</v>
+        <v>0.957615343633354</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.882890240920737</v>
+        <v>0.8032926410375612</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.957615343633354</v>
+        <v>510</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8032926410375612</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>510</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>14.63056384897885</v>
       </c>
     </row>
@@ -5011,72 +4993,66 @@
         <v>1.534019763585405e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.207021946039294</v>
+        <v>9.617266889835609e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>10.95804823249877</v>
+        <v>4.598338494406327e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.617266889835609e-08</v>
+        <v>-0.1045900173355323</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.598338494406327e-07</v>
+        <v>0.2691953415975135</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1045900173355323</v>
+        <v>0.08320601728373486</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2691953415975135</v>
+        <v>1.912549848286132</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08320601728373486</v>
+        <v>4.078187277528737</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.947837847311393</v>
+        <v>7.591695196320321</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.078187277528737</v>
+        <v>2.488596530906746e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.591695196320321</v>
+        <v>150355395721.4651</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.488596530906746e-19</v>
+        <v>7.948728960344417e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>150355395721.4651</v>
+        <v>5625.906723823205</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.948728960344417e-10</v>
+        <v>2.282068975931082e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5625.906723823205</v>
+        <v>7.348080026457058</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.282068975931082e-05</v>
+        <v>1.454888234683824</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.348080026457058</v>
+        <v>0.001232186714373869</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.454888234683824</v>
+        <v>7.325888750542298</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.001232186714373869</v>
+        <v>0.9585413435999511</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.325888750542298</v>
+        <v>0.7852224572661336</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9585413435999511</v>
+        <v>519</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7852224572661336</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>519</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>12.2834559675363</v>
       </c>
     </row>
@@ -5091,72 +5067,66 @@
         <v>1.186533374550062e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.999538671333066</v>
+        <v>7.314021002213615e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9.705334341118945</v>
+        <v>4.584328690713271e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.314021002213615e-08</v>
+        <v>-0.1028321212119464</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.584328690713271e-07</v>
+        <v>0.2541758383081021</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1028321212119464</v>
+        <v>0.07500109278197099</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2541758383081021</v>
+        <v>1.912224465124382</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07500109278197099</v>
+        <v>4.152879522311197</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.947629105390748</v>
+        <v>7.593445327324559</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>4.152879522311197</v>
+        <v>2.487449523758599e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.593445327324559</v>
+        <v>151205538069.0869</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.487449523758599e-19</v>
+        <v>7.912451507396944e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>151205538069.0869</v>
+        <v>5687.084387852173</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.912451507396944e-10</v>
+        <v>3.019685138794215e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5687.084387852173</v>
+        <v>6.583383880432428</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>3.019685138794215e-05</v>
+        <v>1.313234641704085</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.583383880432428</v>
+        <v>0.001308760024360826</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.313234641704085</v>
+        <v>6.996643245211611</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.001308760024360826</v>
+        <v>0.9592289133872413</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.996643245211611</v>
+        <v>0.7533889851297637</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9592289133872413</v>
+        <v>523</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7533889851297637</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>523</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>10.61313867274122</v>
       </c>
     </row>
@@ -5171,72 +5141,66 @@
         <v>9.356265323710694e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.742349553455968</v>
+        <v>5.626316975900924e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8.222197491455059</v>
+        <v>4.573617764628219e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.626316975900924e-08</v>
+        <v>-0.1003115403711402</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.573617764628219e-07</v>
+        <v>0.2354115800294543</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1003115403711402</v>
+        <v>0.06532725648519948</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2354115800294543</v>
+        <v>1.912366803573612</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06532725648519948</v>
+        <v>3.663699190574137</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.945566628269006</v>
+        <v>7.398611575228523</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.663699190574137</v>
+        <v>2.714248119024105e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.398611575228523</v>
+        <v>137970666461.785</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.714248119024105e-19</v>
+        <v>8.67254148312539e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>137970666461.785</v>
+        <v>5166.816880793225</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.67254148312539e-10</v>
+        <v>3.385647831829367e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5166.816880793225</v>
+        <v>6.144700725253203</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>3.385647831829367e-05</v>
+        <v>1.465501046369785</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.144700725253203</v>
+        <v>0.001278330800160897</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.465501046369785</v>
+        <v>6.900039742941624</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.001278330800160897</v>
+        <v>0.9589843527188282</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.900039742941624</v>
+        <v>0.7975975980279376</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9589843527188282</v>
+        <v>478</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7975975980279376</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>478</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>9.963441772181145</v>
       </c>
     </row>
@@ -5613,7 +5577,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50766909478686</v>
+        <v>1.533204657300861</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.378094733135074</v>
@@ -5702,7 +5666,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.537318101402867</v>
+        <v>1.560741604767693</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.287765925308317</v>
@@ -5791,7 +5755,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.568462346470376</v>
+        <v>1.591863139480493</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.392411083074501</v>
@@ -5880,7 +5844,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.573688430218354</v>
+        <v>1.596899310660584</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.260479482967493</v>
@@ -5969,7 +5933,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.597042574982836</v>
+        <v>1.619774732104708</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.187435433628466</v>
@@ -6058,7 +6022,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.646693324230233</v>
+        <v>1.665028642013978</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.276804750785721</v>
@@ -6147,7 +6111,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.649837212905223</v>
+        <v>1.670628134783458</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.29720636728775</v>
@@ -6236,7 +6200,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.659838356432103</v>
+        <v>1.672230745359663</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.350605430525222</v>
@@ -6325,7 +6289,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.589036759738606</v>
+        <v>1.607628157891924</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.202299719372756</v>
@@ -6414,7 +6378,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.596919143041853</v>
+        <v>1.61817364861399</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.282460930826163</v>
@@ -6503,7 +6467,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.618111791566336</v>
+        <v>1.642156511531014</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.298515307589673</v>
@@ -6592,7 +6556,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.620602286638804</v>
+        <v>1.644174253639827</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.322811868066456</v>
@@ -6681,7 +6645,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.602706251425168</v>
+        <v>1.629009258144747</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.182902267500896</v>
@@ -6770,7 +6734,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.621409640297093</v>
+        <v>1.641047856434626</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.294838215761326</v>
@@ -6859,7 +6823,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.581857063030508</v>
+        <v>1.608906020187901</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.383043189849894</v>
@@ -6948,7 +6912,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.58023527329497</v>
+        <v>1.608522103735896</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.340084696018089</v>
@@ -7037,7 +7001,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.582712179515466</v>
+        <v>1.612288214512097</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.35449163498254</v>
@@ -7126,7 +7090,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.582620261128641</v>
+        <v>1.60434533791965</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.364724326004624</v>
@@ -7215,7 +7179,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.560343982124597</v>
+        <v>1.587951062896633</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.429019768468974</v>
@@ -7304,7 +7268,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.564383506749061</v>
+        <v>1.592718817706552</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.39176724793871</v>
@@ -7393,7 +7357,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.549903183670959</v>
+        <v>1.57315716598482</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.392081228567419</v>
@@ -7482,7 +7446,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575412341571031</v>
+        <v>1.603147071877802</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.287259761367769</v>
@@ -7571,7 +7535,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.597276673689182</v>
+        <v>1.624315758570964</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.373518993473008</v>
@@ -7660,7 +7624,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.650668984232732</v>
+        <v>1.67751472456604</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.535879480166911</v>
@@ -7749,7 +7713,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.648798575428068</v>
+        <v>1.671321728238226</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.653460989670628</v>
@@ -7838,7 +7802,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.60942922141431</v>
+        <v>1.631682079631928</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.478043918278724</v>
@@ -7927,7 +7891,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.607316968961528</v>
+        <v>1.629019060340986</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.447496755521938</v>
@@ -8016,7 +7980,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.649327184163023</v>
+        <v>1.670081259936716</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.495667925733879</v>
@@ -8105,7 +8069,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.679925336237843</v>
+        <v>1.693921202661702</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.693230545239157</v>
@@ -8194,7 +8158,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.692393514081157</v>
+        <v>1.70458691121214</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.48790863690915</v>
@@ -8283,7 +8247,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.696109424559763</v>
+        <v>1.708988073857291</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.453200826579372</v>
@@ -8372,7 +8336,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.68895536053278</v>
+        <v>1.704211104700132</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.49675098393013</v>
@@ -8461,7 +8425,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.684712060924592</v>
+        <v>1.701300439545698</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.613508900609437</v>
@@ -8550,7 +8514,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.690954223136175</v>
+        <v>1.713819179162029</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.538454169923266</v>
@@ -8639,7 +8603,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.688260905496029</v>
+        <v>1.70586188828583</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.453657311936191</v>
@@ -8728,7 +8692,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.72302309342807</v>
+        <v>1.737559420381441</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.295629462034774</v>
@@ -8817,7 +8781,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.725707148627329</v>
+        <v>1.736549394326557</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.484858933528443</v>
@@ -8906,7 +8870,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.685980936312947</v>
+        <v>1.700429463989217</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.513882481174329</v>
@@ -8995,7 +8959,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.679635178485287</v>
+        <v>1.69524058339356</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.458478578771855</v>
@@ -9084,7 +9048,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.676537104164535</v>
+        <v>1.696123801899706</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.434194105441282</v>
@@ -9173,7 +9137,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.735718797616427</v>
+        <v>1.752841227208116</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.75119845782659</v>
@@ -9262,7 +9226,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.729435479766534</v>
+        <v>1.744523124055311</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.45368818783626</v>
@@ -9351,7 +9315,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.72686460381685</v>
+        <v>1.739800355103341</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.480637260194766</v>
@@ -9440,7 +9404,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.734768667254469</v>
+        <v>1.74503194531445</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.661787161293546</v>
@@ -9529,7 +9493,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.715588750548823</v>
+        <v>1.715306231722011</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.431584885604763</v>
@@ -9618,7 +9582,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.684171734007744</v>
+        <v>1.700206251197581</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.523161092020074</v>
@@ -9707,7 +9671,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.691568273032801</v>
+        <v>1.700091193924201</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.368316043640382</v>
@@ -9796,7 +9760,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.705615828062814</v>
+        <v>1.715632472085895</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.402971860768433</v>
@@ -9885,7 +9849,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.715566619102404</v>
+        <v>1.720512340037592</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.327817968685685</v>
@@ -10171,7 +10135,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.458068354879821</v>
+        <v>1.481870840877004</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.614630984750112</v>
@@ -10260,7 +10224,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.464969299915017</v>
+        <v>1.485690619586742</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.615036799224467</v>
@@ -10349,7 +10313,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.477927141615857</v>
+        <v>1.498437472363706</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.59929784439996</v>
@@ -10438,7 +10402,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.483532346729978</v>
+        <v>1.5041181969287</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.605632952352526</v>
@@ -10527,7 +10491,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.478895336626043</v>
+        <v>1.498743798829925</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.610087751050596</v>
@@ -10616,7 +10580,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.48816087574909</v>
+        <v>1.506519103022735</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.598324996445116</v>
@@ -10705,7 +10669,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.485520965603341</v>
+        <v>1.504045101216636</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.599274560313511</v>
@@ -10794,7 +10758,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.505906790138576</v>
+        <v>1.518447676445864</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.567980819641567</v>
@@ -10883,7 +10847,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.536570751550833</v>
+        <v>1.524849750343281</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.064688365611316</v>
@@ -10972,7 +10936,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.549433166566684</v>
+        <v>1.534447075182965</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.29608636666178</v>
@@ -11061,7 +11025,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.564329708018552</v>
+        <v>1.550717986420271</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.206619143932993</v>
@@ -11150,7 +11114,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.580869066577619</v>
+        <v>1.564012232311123</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.258419648067154</v>
@@ -11239,7 +11203,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.606313926441366</v>
+        <v>1.584535314719145</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.977582757517336</v>
@@ -11328,7 +11292,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.629559707705514</v>
+        <v>1.603994858375115</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.558319923028268</v>
@@ -11417,7 +11381,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.576622827169881</v>
+        <v>1.560645379481226</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.532259235674457</v>
@@ -11506,7 +11470,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.572572711332291</v>
+        <v>1.55964114541252</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.534768268425466</v>
@@ -11595,7 +11559,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.581211420550129</v>
+        <v>1.571899757814314</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.524708608013123</v>
@@ -11684,7 +11648,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.588763895391532</v>
+        <v>1.568706793207285</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.418019666039208</v>
@@ -11773,7 +11737,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.570462722697076</v>
+        <v>1.560395851611902</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.391158278561563</v>
@@ -11862,7 +11826,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.557648472986829</v>
+        <v>1.548774745787844</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.362290726702636</v>
@@ -11951,7 +11915,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.550559794145712</v>
+        <v>1.539266763890272</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.546518671528669</v>
@@ -12040,7 +12004,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.555745569092227</v>
+        <v>1.549613048505154</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.286292349479227</v>
@@ -12129,7 +12093,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.557490049508961</v>
+        <v>1.548326088636393</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.409917162365067</v>
@@ -12218,7 +12182,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.561203961488683</v>
+        <v>1.553838772437685</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.385215503473458</v>
@@ -12307,7 +12271,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.553226359503032</v>
+        <v>1.545530584116434</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.528440215061786</v>
@@ -12396,7 +12360,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.526608023548276</v>
+        <v>1.521532505014982</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.480748380675927</v>
@@ -12485,7 +12449,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.523888702949383</v>
+        <v>1.521319649313113</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.473646110914934</v>
@@ -12574,7 +12538,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.543546051710925</v>
+        <v>1.535175012482098</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.532179750187749</v>
@@ -12663,7 +12627,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.553454442492433</v>
+        <v>1.547858146162227</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.343960117276868</v>
@@ -12752,7 +12716,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.573319205120995</v>
+        <v>1.564544295288242</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.4209246821765</v>
@@ -12841,7 +12805,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.576966437438849</v>
+        <v>1.56313641206669</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.384167320665969</v>
@@ -12930,7 +12894,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570446686418443</v>
+        <v>1.556700939988377</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.620431664597256</v>
@@ -13019,7 +12983,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.576575787373546</v>
+        <v>1.561740809159033</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.771420672293274</v>
@@ -13108,7 +13072,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.577805993157356</v>
+        <v>1.562681840827017</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.394687740025782</v>
@@ -13197,7 +13161,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.589710921785908</v>
+        <v>1.564687938781987</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.574119177201218</v>
@@ -13286,7 +13250,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600472691910284</v>
+        <v>1.574103160848654</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.4135404780789</v>
@@ -13375,7 +13339,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.597803138449685</v>
+        <v>1.569825596908568</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.620133717038235</v>
@@ -13464,7 +13428,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.56399821086834</v>
+        <v>1.540878190359861</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.681638077389473</v>
@@ -13553,7 +13517,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.578811975118868</v>
+        <v>1.556079469881996</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.615318160152689</v>
@@ -13642,7 +13606,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.577185591113532</v>
+        <v>1.555271398238841</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.575874623324236</v>
@@ -13731,7 +13695,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.608588200500729</v>
+        <v>1.579251521049595</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.630396009636327</v>
@@ -13820,7 +13784,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.604300106386113</v>
+        <v>1.574064807976435</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.645159298958525</v>
@@ -13909,7 +13873,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.60465873253577</v>
+        <v>1.575594125988012</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.696624003698985</v>
@@ -13998,7 +13962,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.611446100880527</v>
+        <v>1.577015422121528</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.403544156812541</v>
@@ -14087,7 +14051,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.598720844026624</v>
+        <v>1.56155277499022</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.68763956784085</v>
@@ -14176,7 +14140,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.574221346957603</v>
+        <v>1.548900837197439</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.566145593311609</v>
@@ -14265,7 +14229,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.577319065006411</v>
+        <v>1.553787855747514</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.545544912029929</v>
@@ -14354,7 +14318,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.549263978880489</v>
+        <v>1.527152837719108</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.709950312037992</v>
@@ -14443,7 +14407,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.55404874818433</v>
+        <v>1.528351502179234</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.53673082473464</v>
@@ -14729,7 +14693,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.670398261951364</v>
+        <v>1.664665377606336</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.034239706875826</v>
@@ -14818,7 +14782,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.678984775417984</v>
+        <v>1.671503326512072</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.039777001086816</v>
@@ -14907,7 +14871,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.701370814006769</v>
+        <v>1.691184591077734</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.005606072358901</v>
@@ -14996,7 +14960,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.70818817743971</v>
+        <v>1.694628198587479</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.038592287626702</v>
@@ -15085,7 +15049,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.711365131789871</v>
+        <v>1.699501357862771</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.035388926516318</v>
@@ -15174,7 +15138,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.71950827032809</v>
+        <v>1.70567322758311</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.019537348169747</v>
@@ -15263,7 +15227,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.712203273007206</v>
+        <v>1.697338268689117</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.020418916051895</v>
@@ -15352,7 +15316,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.721799911038991</v>
+        <v>1.704774166015426</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.001048387811641</v>
@@ -15441,7 +15405,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.729344284177953</v>
+        <v>1.706272414502322</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.736847683394047</v>
@@ -15530,7 +15494,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.739236686111607</v>
+        <v>1.712694055522805</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.98533918280453</v>
@@ -15619,7 +15583,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.750732714004976</v>
+        <v>1.726088964376332</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.975578017420328</v>
@@ -15708,7 +15672,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.753834233234878</v>
+        <v>1.729501498762467</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.091184959565247</v>
@@ -15797,7 +15761,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.747265815718466</v>
+        <v>1.725268845580955</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.40912135996341</v>
@@ -15886,7 +15850,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.761000518224124</v>
+        <v>1.736492243718803</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.077911278879294</v>
@@ -15975,7 +15939,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.742253679214972</v>
+        <v>1.716383988054275</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.038022613290152</v>
@@ -16064,7 +16028,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.746005179184559</v>
+        <v>1.720831944966082</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.06529651684246</v>
@@ -16153,7 +16117,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.74370191509662</v>
+        <v>1.717943026430053</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.03752947315307</v>
@@ -16242,7 +16206,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.736037636811627</v>
+        <v>1.703436260687311</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.002174183428544</v>
@@ -16331,7 +16295,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.720646153396552</v>
+        <v>1.693582921571577</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.936478424782202</v>
@@ -16420,7 +16384,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.713450237134134</v>
+        <v>1.692166847070724</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.866068116365354</v>
@@ -16509,7 +16473,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.714543949873963</v>
+        <v>1.692024738896416</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.037331188211032</v>
@@ -16598,7 +16562,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.722088719443309</v>
+        <v>1.70102080136492</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.633780589265035</v>
@@ -16687,7 +16651,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.731575297472249</v>
+        <v>1.709141774477173</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.788203068322731</v>
@@ -16776,7 +16740,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.731133317267934</v>
+        <v>1.71011609187192</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.991314508686654</v>
@@ -16865,7 +16829,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.726364910029901</v>
+        <v>1.709743948366941</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.967512855158164</v>
@@ -16954,7 +16918,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.708401032896939</v>
+        <v>1.694245926463408</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.022834477814663</v>
@@ -17043,7 +17007,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.726165485617491</v>
+        <v>1.707817908280288</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.606993515434444</v>
@@ -17132,7 +17096,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.733762935813681</v>
+        <v>1.716203834796993</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.773062339193635</v>
@@ -17221,7 +17185,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.73331905295473</v>
+        <v>1.718361388160185</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.956631321476471</v>
@@ -17310,7 +17274,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.74217548150482</v>
+        <v>1.728609582312512</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.0186967668957</v>
@@ -17399,7 +17363,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.73983146597908</v>
+        <v>1.720967843126127</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.964537334347674</v>
@@ -17488,7 +17452,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.738963352953617</v>
+        <v>1.721517934139458</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.041409709128361</v>
@@ -17577,7 +17541,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.757036505810815</v>
+        <v>1.73745362700883</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.374676789160976</v>
@@ -17666,7 +17630,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.766080779396574</v>
+        <v>1.747165612223796</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.594987577173774</v>
@@ -17755,7 +17719,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.769501306486362</v>
+        <v>1.739558724211288</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.986305266853607</v>
@@ -17844,7 +17808,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.759900106993248</v>
+        <v>1.727532626780134</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.222834098483261</v>
@@ -17933,7 +17897,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.767303413368801</v>
+        <v>1.730872038145799</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.266620733625236</v>
@@ -18022,7 +17986,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.748171160952154</v>
+        <v>1.713532726941862</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.12495135344659</v>
@@ -18111,7 +18075,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.756794665361878</v>
+        <v>1.717806165244558</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.149149183883181</v>
@@ -18200,7 +18164,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.757213511307022</v>
+        <v>1.70995649748381</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.306074032109082</v>
@@ -18289,7 +18253,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.772507496204187</v>
+        <v>1.72670606355933</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.580339044300604</v>
@@ -18378,7 +18342,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.773181118850748</v>
+        <v>1.728774263754054</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.431515444774984</v>
@@ -18467,7 +18431,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.76149305501829</v>
+        <v>1.71932694168519</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.260457111501898</v>
@@ -18556,7 +18520,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.767310221452423</v>
+        <v>1.720963979526474</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.772171913898706</v>
@@ -18645,7 +18609,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.766544177075332</v>
+        <v>1.717653713779137</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.575931440528333</v>
@@ -18734,7 +18698,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.754275662252949</v>
+        <v>1.710034400956756</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.83276183584965</v>
@@ -18823,7 +18787,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.751129909400025</v>
+        <v>1.70857653700953</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.438129394596844</v>
@@ -18912,7 +18876,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.725502875191692</v>
+        <v>1.684206181316736</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.361788755608345</v>
@@ -19001,7 +18965,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.723446506762883</v>
+        <v>1.684067607746287</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.306199665433138</v>
@@ -19287,7 +19251,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.716433846601956</v>
+        <v>1.721578457691831</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.005836072339565</v>
@@ -19376,7 +19340,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.713521538508129</v>
+        <v>1.719762607066758</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.009418178326932</v>
@@ -19465,7 +19429,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.725889282669582</v>
+        <v>1.72766500944553</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.992009114220292</v>
@@ -19554,7 +19518,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.728337507212772</v>
+        <v>1.729543966351224</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.047495153632089</v>
@@ -19643,7 +19607,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.730962377209196</v>
+        <v>1.734144687054603</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.012400982204533</v>
@@ -19732,7 +19696,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.735769895660661</v>
+        <v>1.738141598630692</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.988612640988634</v>
@@ -19821,7 +19785,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.738865451488429</v>
+        <v>1.741984117071105</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.007742689743169</v>
@@ -19910,7 +19874,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.739590982078727</v>
+        <v>1.738562748735903</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.91939271306577</v>
@@ -19999,7 +19963,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.756985796646626</v>
+        <v>1.727102745253748</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.294352964500369</v>
@@ -20088,7 +20052,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.760391424496199</v>
+        <v>1.726850070457869</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.224333059757517</v>
@@ -20177,7 +20141,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.766119775376422</v>
+        <v>1.731641281203208</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.835879854504827</v>
@@ -20266,7 +20230,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.76211168433392</v>
+        <v>1.725253001428824</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.572671635760805</v>
@@ -20355,7 +20319,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.762221243741609</v>
+        <v>1.723380637115446</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.075435318522352</v>
@@ -20444,7 +20408,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.768226163437551</v>
+        <v>1.724817928988019</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.865865489606555</v>
@@ -20533,7 +20497,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.766247696613569</v>
+        <v>1.725214021114391</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.775079563070697</v>
@@ -20622,7 +20586,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.749327473524493</v>
+        <v>1.707743983136927</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.940187790182339</v>
@@ -20711,7 +20675,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.762281187368725</v>
+        <v>1.717887587745694</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.892352942487192</v>
@@ -20800,7 +20764,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.753630832663699</v>
+        <v>1.720558602280266</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.650593971009864</v>
@@ -20889,7 +20853,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.751577321172502</v>
+        <v>1.721035430979216</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.403781413464388</v>
@@ -20978,7 +20942,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.737402531896388</v>
+        <v>1.707633370324926</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.8178052805825</v>
@@ -21067,7 +21031,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.730618565733902</v>
+        <v>1.698394326607566</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.052038447563812</v>
@@ -21156,7 +21120,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.729889695424513</v>
+        <v>1.694069249433762</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.474830380051872</v>
@@ -21245,7 +21209,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.734632370890631</v>
+        <v>1.695498889342279</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.601253740826924</v>
@@ -21334,7 +21298,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.746365327511388</v>
+        <v>1.699737012426662</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.096047405806504</v>
@@ -21423,7 +21387,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.739326485877965</v>
+        <v>1.695594071330421</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.607815089624536</v>
@@ -21512,7 +21476,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.740374255555075</v>
+        <v>1.69931950535018</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.973981458897291</v>
@@ -21601,7 +21565,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.744257065697141</v>
+        <v>1.701847029817969</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.800150594372305</v>
@@ -21690,7 +21654,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.752184909001993</v>
+        <v>1.707182541567745</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.821463945262618</v>
@@ -21779,7 +21743,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.749556133718136</v>
+        <v>1.706976885363499</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.130028625509564</v>
@@ -21868,7 +21832,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.750234205976464</v>
+        <v>1.704212527666568</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.677601524296397</v>
@@ -21957,7 +21921,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.759868822952768</v>
+        <v>1.709502852145002</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.392591545190757</v>
@@ -22046,7 +22010,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.75134887926038</v>
+        <v>1.70274217457909</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.827245015464345</v>
@@ -22135,7 +22099,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.749499713791296</v>
+        <v>1.691657445079997</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.315211717017458</v>
@@ -22224,7 +22188,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.743945615313662</v>
+        <v>1.680350986778556</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.917708665378268</v>
@@ -22313,7 +22277,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.754938419636946</v>
+        <v>1.682117845467517</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.479374032176511</v>
@@ -22402,7 +22366,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.747312842594286</v>
+        <v>1.683761714306925</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.780140293188638</v>
@@ -22491,7 +22455,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.745147142320119</v>
+        <v>1.681029768055609</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.114819594686439</v>
@@ -22580,7 +22544,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.743874983427669</v>
+        <v>1.682722285024846</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.329766157008065</v>
@@ -22669,7 +22633,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.742129096430696</v>
+        <v>1.680834055813224</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.322504915235746</v>
@@ -22758,7 +22722,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.73366939360513</v>
+        <v>1.675588700656668</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.865751703093387</v>
@@ -22847,7 +22811,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.738861867972411</v>
+        <v>1.678702360862252</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.474300657070602</v>
@@ -22936,7 +22900,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.731040039770418</v>
+        <v>1.673587293329933</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.490758354885132</v>
@@ -23025,7 +22989,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.729991576124274</v>
+        <v>1.67183214489567</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.876396048542651</v>
@@ -23114,7 +23078,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.725178966791354</v>
+        <v>1.671184213955776</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.87459956176157</v>
@@ -23203,7 +23167,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.723693215837383</v>
+        <v>1.669913772455081</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.146727929244216</v>
@@ -23292,7 +23256,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.718757299943614</v>
+        <v>1.670218473762772</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.353376439297665</v>
@@ -23381,7 +23345,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.729289299805858</v>
+        <v>1.682852938648124</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.285993824654703</v>
@@ -23470,7 +23434,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.737791538088332</v>
+        <v>1.692021728127902</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.49648308280611</v>
@@ -23559,7 +23523,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.744259854526467</v>
+        <v>1.698364449004536</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.136388690567026</v>
@@ -23845,7 +23809,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.352939987867452</v>
+        <v>1.362946482249028</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.628722272627012</v>
@@ -23934,7 +23898,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.363942472192784</v>
+        <v>1.37378221650608</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.618567295665544</v>
@@ -24023,7 +23987,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.370641483086565</v>
+        <v>1.381566308515923</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.615204628625889</v>
@@ -24112,7 +24076,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.373537282218478</v>
+        <v>1.385749826756164</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.596807903748648</v>
@@ -24201,7 +24165,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.375034643732276</v>
+        <v>1.387418788135532</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.598116973945996</v>
@@ -24290,7 +24254,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.390661462529268</v>
+        <v>1.402493738724768</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.609327511918114</v>
@@ -24379,7 +24343,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.395239383248817</v>
+        <v>1.406844457901308</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.599825057062009</v>
@@ -24468,7 +24432,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.43718601940188</v>
+        <v>1.435825247627424</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.512054635170585</v>
@@ -24557,7 +24521,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.51077121774716</v>
+        <v>1.507162030907542</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.3750754630199</v>
@@ -24646,7 +24610,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.504328117613408</v>
+        <v>1.503709325521619</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.380288202461641</v>
@@ -24735,7 +24699,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.527134059395469</v>
+        <v>1.522447697108162</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.328005401501929</v>
@@ -24824,7 +24788,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.532624544300959</v>
+        <v>1.526820399033866</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.37554211324849</v>
@@ -24913,7 +24877,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.523286921761643</v>
+        <v>1.519014407054373</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.372143059963836</v>
@@ -25002,7 +24966,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.535212017517312</v>
+        <v>1.514546830128764</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.019057812494222</v>
@@ -25091,7 +25055,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.481830617635622</v>
+        <v>1.475468386760951</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.047971521321552</v>
@@ -25180,7 +25144,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.480736677321518</v>
+        <v>1.474896258046798</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.055520789178192</v>
@@ -25269,7 +25233,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.477289650059046</v>
+        <v>1.46734018607236</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.05037277465623</v>
@@ -25358,7 +25322,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.481420666370862</v>
+        <v>1.465479028321186</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.039037899127337</v>
@@ -25447,7 +25411,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.463454906935615</v>
+        <v>1.452734502864556</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.081710009532613</v>
@@ -25536,7 +25500,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.46735797124855</v>
+        <v>1.457575406255724</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.074035003478576</v>
@@ -25625,7 +25589,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.463343810778063</v>
+        <v>1.449678772812022</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.054361958824201</v>
@@ -25714,7 +25678,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.471980418005365</v>
+        <v>1.462311311403812</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.069817209751812</v>
@@ -25803,7 +25767,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.482738162490057</v>
+        <v>1.466949509686138</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.314293585885058</v>
@@ -25892,7 +25856,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.504123008619199</v>
+        <v>1.484634194549748</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.080546714668227</v>
@@ -25981,7 +25945,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.511056747532335</v>
+        <v>1.48655625921958</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.101251020923947</v>
@@ -26070,7 +26034,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.505345711502047</v>
+        <v>1.485378349187439</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.047051690697947</v>
@@ -26159,7 +26123,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.509422113745694</v>
+        <v>1.488846631077642</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.084461769215614</v>
@@ -26248,7 +26212,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.546149943690488</v>
+        <v>1.520815451388153</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.110358956222526</v>
@@ -26337,7 +26301,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.570142724156608</v>
+        <v>1.549124186426391</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.339003967605063</v>
@@ -26426,7 +26390,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.587946886822531</v>
+        <v>1.566828828445266</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.718754140691224</v>
@@ -26515,7 +26479,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.593655642516208</v>
+        <v>1.576043796315098</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.904072881584513</v>
@@ -26604,7 +26568,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.592892887250657</v>
+        <v>1.579867203990833</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.845458386620846</v>
@@ -26693,7 +26657,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.569571665529905</v>
+        <v>1.562643947427012</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.431891365006257</v>
@@ -26782,7 +26746,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.580800313945524</v>
+        <v>1.56900948270479</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.285900523458277</v>
@@ -26871,7 +26835,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.57867539077911</v>
+        <v>1.565802890286064</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.474756704032815</v>
@@ -26960,7 +26924,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.592562409407396</v>
+        <v>1.580699812375947</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.302567658134423</v>
@@ -27049,7 +27013,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.595789603114293</v>
+        <v>1.588728711904476</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.506221928734932</v>
@@ -27138,7 +27102,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.56376290878868</v>
+        <v>1.566579298040594</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.468411995466532</v>
@@ -27227,7 +27191,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.578537554006657</v>
+        <v>1.58441044703737</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.576144023807061</v>
@@ -27316,7 +27280,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.577930380315388</v>
+        <v>1.58599840951421</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.524090464357922</v>
@@ -27405,7 +27369,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.586383575893879</v>
+        <v>1.592052279359298</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.500092047506921</v>
@@ -27494,7 +27458,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.584936019665665</v>
+        <v>1.589635133305858</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.497282252155538</v>
@@ -27583,7 +27547,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.58436954251038</v>
+        <v>1.586298343304313</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.559852796712587</v>
@@ -27672,7 +27636,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.591906860077443</v>
+        <v>1.590603736767092</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.452959207336639</v>
@@ -27761,7 +27725,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.564030149850865</v>
+        <v>1.55652438896306</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.322009152281491</v>
@@ -27850,7 +27814,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.534088181831937</v>
+        <v>1.536449344591005</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.434937959072488</v>
@@ -27939,7 +27903,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.556701007047874</v>
+        <v>1.55343477970161</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.410292391645312</v>
@@ -28028,7 +27992,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.544466509166253</v>
+        <v>1.543120886208753</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.409083266951835</v>
@@ -28117,7 +28081,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.540627981888075</v>
+        <v>1.542662022627894</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.424331313506753</v>
@@ -28403,7 +28367,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.443431466454423</v>
+        <v>1.443736757388308</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.851538705619271</v>
@@ -28492,7 +28456,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.465285677725773</v>
+        <v>1.462438668270851</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.812234778429791</v>
@@ -28581,7 +28545,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.482467759772084</v>
+        <v>1.479470806754674</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.820351589094113</v>
@@ -28670,7 +28634,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.482402674685065</v>
+        <v>1.477909028263483</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.793787870189809</v>
@@ -28759,7 +28723,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.502427728822526</v>
+        <v>1.498348794520125</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.790755388795912</v>
@@ -28848,7 +28812,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.53401145200457</v>
+        <v>1.527687645455036</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.813486992424</v>
@@ -28937,7 +28901,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.539659171328512</v>
+        <v>1.535103257883533</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.804192482735986</v>
@@ -29026,7 +28990,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.552653421689644</v>
+        <v>1.537668994719864</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.733928944779727</v>
@@ -29115,7 +29079,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.570330724264519</v>
+        <v>1.564108771952836</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.170192580647897</v>
@@ -29204,7 +29168,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.568572502891338</v>
+        <v>1.562495113748396</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.230134070718998</v>
@@ -29293,7 +29257,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.586188940998841</v>
+        <v>1.576954498924345</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.199739972045511</v>
@@ -29382,7 +29346,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.58551482633347</v>
+        <v>1.578707885517962</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.293432966857397</v>
@@ -29471,7 +29435,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.576456502527229</v>
+        <v>1.572162850550789</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.33461959332612</v>
@@ -29560,7 +29524,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.587186519668523</v>
+        <v>1.567357136232121</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.170530624983952</v>
@@ -29649,7 +29613,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.537069620942909</v>
+        <v>1.531306217511111</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.168254064107542</v>
@@ -29738,7 +29702,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.535622453740181</v>
+        <v>1.531440153265405</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.1865917182584</v>
@@ -29827,7 +29791,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.538203057237177</v>
+        <v>1.534379435872701</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.185466327647455</v>
@@ -29916,7 +29880,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.532069229699757</v>
+        <v>1.528477152777399</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.175863649601168</v>
@@ -30005,7 +29969,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.517173034978912</v>
+        <v>1.519454537874108</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.256627076248756</v>
@@ -30094,7 +30058,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.515078313016661</v>
+        <v>1.519414302762033</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.200168588644897</v>
@@ -30183,7 +30147,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.506444251795868</v>
+        <v>1.504260686763846</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.166548918714627</v>
@@ -30272,7 +30236,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.523664419446785</v>
+        <v>1.522897451804139</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.147513777660181</v>
@@ -30361,7 +30325,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.53933940310333</v>
+        <v>1.532211737158545</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.27266929670206</v>
@@ -30450,7 +30414,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.579938884658578</v>
+        <v>1.56701861970521</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.151695284221224</v>
@@ -30539,7 +30503,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.581069596229846</v>
+        <v>1.564611070975081</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.180689499436795</v>
@@ -30628,7 +30592,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.564322300932403</v>
+        <v>1.548360190024204</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.133031007238999</v>
@@ -30717,7 +30681,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.573158563685963</v>
+        <v>1.557532509392267</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.139306724212656</v>
@@ -30806,7 +30770,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.60339517741876</v>
+        <v>1.577983883006303</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.125399765056341</v>
@@ -30895,7 +30859,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.633198770089044</v>
+        <v>1.60934126875284</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.570506183635287</v>
@@ -30984,7 +30948,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.643512785210882</v>
+        <v>1.620915981957059</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.611718920200246</v>
@@ -31073,7 +31037,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.644729309922016</v>
+        <v>1.620450504802018</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.572256504814183</v>
@@ -31162,7 +31126,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.641702425471331</v>
+        <v>1.620947101281655</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.636284831180451</v>
@@ -31251,7 +31215,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.618782068354991</v>
+        <v>1.595672232448857</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.357728204047524</v>
@@ -31340,7 +31304,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.634029218516711</v>
+        <v>1.60561771055114</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.259317491776196</v>
@@ -31429,7 +31393,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.633934856646244</v>
+        <v>1.603053447299588</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.30721620202285</v>
@@ -31518,7 +31482,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.654719428762642</v>
+        <v>1.623176209537447</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.219898121434115</v>
@@ -31607,7 +31571,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.653198438687468</v>
+        <v>1.624188581775845</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.400082642382606</v>
@@ -31696,7 +31660,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.62022344846338</v>
+        <v>1.602276960118295</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.386621321194626</v>
@@ -31785,7 +31749,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.626564104941041</v>
+        <v>1.60689413301088</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.397272312118436</v>
@@ -31874,7 +31838,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.625224413013651</v>
+        <v>1.611262702460451</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.426132924945743</v>
@@ -31963,7 +31927,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.653114162892552</v>
+        <v>1.639238787038384</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.452749850381915</v>
@@ -32052,7 +32016,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.646241850409089</v>
+        <v>1.626911255472974</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.323966185387722</v>
@@ -32141,7 +32105,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.652019756558761</v>
+        <v>1.632603354649968</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.395323846443207</v>
@@ -32230,7 +32194,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.667256839413482</v>
+        <v>1.641058450158944</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.448855181276109</v>
@@ -32319,7 +32283,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.647025333340074</v>
+        <v>1.61046376150149</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.278564992217894</v>
@@ -32408,7 +32372,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.624328931231419</v>
+        <v>1.603589355976132</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.295538013485418</v>
@@ -32497,7 +32461,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.648463777626447</v>
+        <v>1.619996142377375</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.2796227229185</v>
@@ -32586,7 +32550,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.664236568435957</v>
+        <v>1.64056214925392</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.28490213615614</v>
@@ -32675,7 +32639,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.662998570914295</v>
+        <v>1.64424939086631</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.240749743719203</v>
